--- a/2/output.xlsx
+++ b/2/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b2767c09554f7d1/Desktop/SPIT/DAA Sem 4/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{775E4891-3DEF-4A8F-BA60-B074C095CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CAC567DC-C2BA-4851-89F6-5DEC68EAC013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Conclusion-</t>
   </si>
   <si>
-    <t>Merge Sort is faster than quick sort, especially in large data sets where it crushes the time taken by quick sort. It has a much stable graph</t>
+    <t>Merge Sort is faster than quick sort, especially in large data sets where it crushes the time taken by quick sort. It has a much stable graph. Merge sort is better for large data structures: Mergesort is a stable sort, unlike quicksort and heapsort, and can be easily adapted to operate on linked lists and very large lists stored on slow-to-access media such as disk storage or network attached storage.</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13869,8 +13869,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13878,7 +13878,7 @@
     <col min="1" max="2" width="10.36328125" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" customWidth="1"/>
     <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="31.453125" customWidth="1"/>
+    <col min="14" max="14" width="69.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -13907,7 +13907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>

--- a/2/output.xlsx
+++ b/2/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b2767c09554f7d1/Desktop/SPIT/DAA Sem 4/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CAC567DC-C2BA-4851-89F6-5DEC68EAC013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{5F5623A0-BDFE-4075-B2EA-36C39ABFBD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12802,6 +12802,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> no.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43133827519498807"/>
+              <c:y val="0.86857093412773945"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12866,6 +12932,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> in microseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13869,8 +13993,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
